--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt16-Fzd2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt16-Fzd2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Wnt16</t>
+  </si>
+  <si>
+    <t>Fzd2</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Wnt16</t>
-  </si>
-  <si>
-    <t>Fzd2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2114893333333333</v>
+        <v>0.702341</v>
       </c>
       <c r="H2">
-        <v>0.634468</v>
+        <v>2.107023</v>
       </c>
       <c r="I2">
-        <v>0.1527797075198618</v>
+        <v>0.3978241315558134</v>
       </c>
       <c r="J2">
-        <v>0.1527797075198618</v>
+        <v>0.3978241315558134</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.08106100000000001</v>
+        <v>0.1503136666666667</v>
       </c>
       <c r="N2">
-        <v>0.243183</v>
+        <v>0.450941</v>
       </c>
       <c r="O2">
-        <v>0.004404799763312406</v>
+        <v>0.008029526741163598</v>
       </c>
       <c r="P2">
-        <v>0.004404799763312405</v>
+        <v>0.008029526741163598</v>
       </c>
       <c r="Q2">
-        <v>0.01714353684933333</v>
+        <v>0.1055714509603333</v>
       </c>
       <c r="R2">
-        <v>0.154291831644</v>
+        <v>0.950143058643</v>
       </c>
       <c r="S2">
-        <v>0.0006729640195224257</v>
+        <v>0.003194339502607588</v>
       </c>
       <c r="T2">
-        <v>0.0006729640195224255</v>
+        <v>0.003194339502607588</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2114893333333333</v>
+        <v>0.702341</v>
       </c>
       <c r="H3">
-        <v>0.634468</v>
+        <v>2.107023</v>
       </c>
       <c r="I3">
-        <v>0.1527797075198618</v>
+        <v>0.3978241315558134</v>
       </c>
       <c r="J3">
-        <v>0.1527797075198618</v>
+        <v>0.3978241315558134</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>47.114695</v>
       </c>
       <c r="O3">
-        <v>0.8533935241547975</v>
+        <v>0.8389317081486641</v>
       </c>
       <c r="P3">
-        <v>0.8533935241547974</v>
+        <v>0.8389317081486641</v>
       </c>
       <c r="Q3">
-        <v>3.321418478584445</v>
+        <v>11.03019400033167</v>
       </c>
       <c r="R3">
-        <v>29.89276630726</v>
+        <v>99.27174600298498</v>
       </c>
       <c r="S3">
-        <v>0.1303812130197141</v>
+        <v>0.3337472782288774</v>
       </c>
       <c r="T3">
-        <v>0.1303812130197141</v>
+        <v>0.3337472782288774</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2114893333333333</v>
+        <v>0.702341</v>
       </c>
       <c r="H4">
-        <v>0.634468</v>
+        <v>2.107023</v>
       </c>
       <c r="I4">
-        <v>0.1527797075198618</v>
+        <v>0.3978241315558134</v>
       </c>
       <c r="J4">
-        <v>0.1527797075198618</v>
+        <v>0.3978241315558134</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.583925666666667</v>
+        <v>2.758466666666667</v>
       </c>
       <c r="N4">
-        <v>7.751777000000001</v>
+        <v>8.275399999999999</v>
       </c>
       <c r="O4">
-        <v>0.1404087682726611</v>
+        <v>0.1473530807662759</v>
       </c>
       <c r="P4">
-        <v>0.1404087682726611</v>
+        <v>0.1473530807662759</v>
       </c>
       <c r="Q4">
-        <v>0.5464727166262223</v>
+        <v>1.937384237133333</v>
       </c>
       <c r="R4">
-        <v>4.918254449636001</v>
+        <v>17.4364581342</v>
       </c>
       <c r="S4">
-        <v>0.02145161054992121</v>
+        <v>0.05862061138791733</v>
       </c>
       <c r="T4">
-        <v>0.02145161054992121</v>
+        <v>0.05862061138791733</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,14 +708,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2114893333333333</v>
+        <v>0.702341</v>
       </c>
       <c r="H5">
-        <v>0.634468</v>
+        <v>2.107023</v>
       </c>
       <c r="I5">
-        <v>0.1527797075198618</v>
+        <v>0.3978241315558134</v>
       </c>
       <c r="J5">
-        <v>0.1527797075198618</v>
+        <v>0.3978241315558134</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.03299466666666667</v>
+        <v>0.1064366666666667</v>
       </c>
       <c r="N5">
-        <v>0.09898399999999999</v>
+        <v>0.31931</v>
       </c>
       <c r="O5">
-        <v>0.001792907809228914</v>
+        <v>0.005685684343896315</v>
       </c>
       <c r="P5">
-        <v>0.001792907809228914</v>
+        <v>0.005685684343896314</v>
       </c>
       <c r="Q5">
-        <v>0.006978020056888888</v>
+        <v>0.07475483490333333</v>
       </c>
       <c r="R5">
-        <v>0.062802180512</v>
+        <v>0.6727935141299999</v>
       </c>
       <c r="S5">
-        <v>0.0002739199307040697</v>
+        <v>0.002261902436411036</v>
       </c>
       <c r="T5">
-        <v>0.0002739199307040696</v>
+        <v>0.002261902436411035</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,40 +791,40 @@
         <v>2.865963</v>
       </c>
       <c r="I6">
-        <v>0.6901230462414899</v>
+        <v>0.5411185552061337</v>
       </c>
       <c r="J6">
-        <v>0.6901230462414899</v>
+        <v>0.5411185552061337</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.08106100000000001</v>
+        <v>0.1503136666666667</v>
       </c>
       <c r="N6">
-        <v>0.243183</v>
+        <v>0.450941</v>
       </c>
       <c r="O6">
-        <v>0.004404799763312406</v>
+        <v>0.008029526741163598</v>
       </c>
       <c r="P6">
-        <v>0.004404799763312405</v>
+        <v>0.008029526741163598</v>
       </c>
       <c r="Q6">
-        <v>0.077439275581</v>
+        <v>0.1435978023536667</v>
       </c>
       <c r="R6">
-        <v>0.6969534802289999</v>
+        <v>1.292380221183</v>
       </c>
       <c r="S6">
-        <v>0.003039853830740951</v>
+        <v>0.004344925909167461</v>
       </c>
       <c r="T6">
-        <v>0.00303985383074095</v>
+        <v>0.004344925909167461</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>2.865963</v>
       </c>
       <c r="I7">
-        <v>0.6901230462414899</v>
+        <v>0.5411185552061337</v>
       </c>
       <c r="J7">
-        <v>0.6901230462414899</v>
+        <v>0.5411185552061337</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>47.114695</v>
       </c>
       <c r="O7">
-        <v>0.8533935241547975</v>
+        <v>0.8389317081486641</v>
       </c>
       <c r="P7">
-        <v>0.8533935241547974</v>
+        <v>0.8389317081486641</v>
       </c>
       <c r="Q7">
         <v>15.00321918069833</v>
@@ -883,10 +883,10 @@
         <v>135.028972626285</v>
       </c>
       <c r="S7">
-        <v>0.5889465385324694</v>
+        <v>0.453961513830019</v>
       </c>
       <c r="T7">
-        <v>0.5889465385324693</v>
+        <v>0.453961513830019</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>2.865963</v>
       </c>
       <c r="I8">
-        <v>0.6901230462414899</v>
+        <v>0.5411185552061337</v>
       </c>
       <c r="J8">
-        <v>0.6901230462414899</v>
+        <v>0.5411185552061337</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.583925666666667</v>
+        <v>2.758466666666667</v>
       </c>
       <c r="N8">
-        <v>7.751777000000001</v>
+        <v>8.275399999999999</v>
       </c>
       <c r="O8">
-        <v>0.1404087682726611</v>
+        <v>0.1473530807662759</v>
       </c>
       <c r="P8">
-        <v>0.1404087682726611</v>
+        <v>0.1473530807662759</v>
       </c>
       <c r="Q8">
-        <v>2.468478451805667</v>
+        <v>2.635221134466667</v>
       </c>
       <c r="R8">
-        <v>22.216306066251</v>
+        <v>23.7169902102</v>
       </c>
       <c r="S8">
-        <v>0.09689932687934434</v>
+        <v>0.07973548616941994</v>
       </c>
       <c r="T8">
-        <v>0.09689932687934434</v>
+        <v>0.07973548616941994</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,40 +977,40 @@
         <v>2.865963</v>
       </c>
       <c r="I9">
-        <v>0.6901230462414899</v>
+        <v>0.5411185552061337</v>
       </c>
       <c r="J9">
-        <v>0.6901230462414899</v>
+        <v>0.5411185552061337</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.03299466666666667</v>
+        <v>0.1064366666666667</v>
       </c>
       <c r="N9">
-        <v>0.09898399999999999</v>
+        <v>0.31931</v>
       </c>
       <c r="O9">
-        <v>0.001792907809228914</v>
+        <v>0.005685684343896315</v>
       </c>
       <c r="P9">
-        <v>0.001792907809228914</v>
+        <v>0.005685684343896314</v>
       </c>
       <c r="Q9">
-        <v>0.03152049795466667</v>
+        <v>0.1016811828366667</v>
       </c>
       <c r="R9">
-        <v>0.2836844815919999</v>
+        <v>0.9151306455299999</v>
       </c>
       <c r="S9">
-        <v>0.001237326998935214</v>
+        <v>0.003076629297527308</v>
       </c>
       <c r="T9">
-        <v>0.001237326998935214</v>
+        <v>0.003076629297527308</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1039,40 +1039,40 @@
         <v>0.323382</v>
       </c>
       <c r="I10">
-        <v>0.07787029034906086</v>
+        <v>0.06105731323805295</v>
       </c>
       <c r="J10">
-        <v>0.07787029034906086</v>
+        <v>0.06105731323805295</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.08106100000000001</v>
+        <v>0.1503136666666667</v>
       </c>
       <c r="N10">
-        <v>0.243183</v>
+        <v>0.450941</v>
       </c>
       <c r="O10">
-        <v>0.004404799763312406</v>
+        <v>0.008029526741163598</v>
       </c>
       <c r="P10">
-        <v>0.004404799763312405</v>
+        <v>0.008029526741163598</v>
       </c>
       <c r="Q10">
-        <v>0.008737889434000001</v>
+        <v>0.01620291138466667</v>
       </c>
       <c r="R10">
-        <v>0.078641004906</v>
+        <v>0.145826202462</v>
       </c>
       <c r="S10">
-        <v>0.0003430030364986116</v>
+        <v>0.0004902613293885483</v>
       </c>
       <c r="T10">
-        <v>0.0003430030364986115</v>
+        <v>0.0004902613293885483</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1101,10 +1101,10 @@
         <v>0.323382</v>
       </c>
       <c r="I11">
-        <v>0.07787029034906086</v>
+        <v>0.06105731323805295</v>
       </c>
       <c r="J11">
-        <v>0.07787029034906086</v>
+        <v>0.06105731323805295</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,10 +1119,10 @@
         <v>47.114695</v>
       </c>
       <c r="O11">
-        <v>0.8533935241547975</v>
+        <v>0.8389317081486641</v>
       </c>
       <c r="P11">
-        <v>0.8533935241547974</v>
+        <v>0.8389317081486641</v>
       </c>
       <c r="Q11">
         <v>1.692893810943333</v>
@@ -1131,10 +1131,10 @@
         <v>15.23604429849</v>
       </c>
       <c r="S11">
-        <v>0.06645400150794237</v>
+        <v>0.0512229160897678</v>
       </c>
       <c r="T11">
-        <v>0.06645400150794235</v>
+        <v>0.05122291608976781</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1163,10 +1163,10 @@
         <v>0.323382</v>
       </c>
       <c r="I12">
-        <v>0.07787029034906086</v>
+        <v>0.06105731323805295</v>
       </c>
       <c r="J12">
-        <v>0.07787029034906086</v>
+        <v>0.06105731323805295</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.583925666666667</v>
+        <v>2.758466666666667</v>
       </c>
       <c r="N12">
-        <v>7.751777000000001</v>
+        <v>8.275399999999999</v>
       </c>
       <c r="O12">
-        <v>0.1404087682726611</v>
+        <v>0.1473530807662759</v>
       </c>
       <c r="P12">
-        <v>0.1404087682726611</v>
+        <v>0.1473530807662759</v>
       </c>
       <c r="Q12">
-        <v>0.2785316833126667</v>
+        <v>0.2973461558666667</v>
       </c>
       <c r="R12">
-        <v>2.506785149814</v>
+        <v>2.6761154028</v>
       </c>
       <c r="S12">
-        <v>0.01093367155294613</v>
+        <v>0.008996983208938623</v>
       </c>
       <c r="T12">
-        <v>0.01093367155294613</v>
+        <v>0.008996983208938623</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,13 +1204,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1225,288 +1225,40 @@
         <v>0.323382</v>
       </c>
       <c r="I13">
-        <v>0.07787029034906086</v>
+        <v>0.06105731323805295</v>
       </c>
       <c r="J13">
-        <v>0.07787029034906086</v>
+        <v>0.06105731323805295</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.03299466666666667</v>
+        <v>0.1064366666666667</v>
       </c>
       <c r="N13">
-        <v>0.09898399999999999</v>
+        <v>0.31931</v>
       </c>
       <c r="O13">
-        <v>0.001792907809228914</v>
+        <v>0.005685684343896315</v>
       </c>
       <c r="P13">
-        <v>0.001792907809228914</v>
+        <v>0.005685684343896314</v>
       </c>
       <c r="Q13">
-        <v>0.003556627098666667</v>
+        <v>0.01147323404666667</v>
       </c>
       <c r="R13">
-        <v>0.032009643888</v>
+        <v>0.10325910642</v>
       </c>
       <c r="S13">
-        <v>0.0001396142516737542</v>
+        <v>0.0003471526099579708</v>
       </c>
       <c r="T13">
-        <v>0.0001396142516737541</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G14">
-        <v>0.109672</v>
-      </c>
-      <c r="H14">
-        <v>0.329016</v>
-      </c>
-      <c r="I14">
-        <v>0.07922695588958756</v>
-      </c>
-      <c r="J14">
-        <v>0.07922695588958756</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>0.08106100000000001</v>
-      </c>
-      <c r="N14">
-        <v>0.243183</v>
-      </c>
-      <c r="O14">
-        <v>0.004404799763312406</v>
-      </c>
-      <c r="P14">
-        <v>0.004404799763312405</v>
-      </c>
-      <c r="Q14">
-        <v>0.008890121992</v>
-      </c>
-      <c r="R14">
-        <v>0.080011097928</v>
-      </c>
-      <c r="S14">
-        <v>0.0003489788765504177</v>
-      </c>
-      <c r="T14">
-        <v>0.0003489788765504176</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>0.109672</v>
-      </c>
-      <c r="H15">
-        <v>0.329016</v>
-      </c>
-      <c r="I15">
-        <v>0.07922695588958756</v>
-      </c>
-      <c r="J15">
-        <v>0.07922695588958756</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>15.70489833333333</v>
-      </c>
-      <c r="N15">
-        <v>47.114695</v>
-      </c>
-      <c r="O15">
-        <v>0.8533935241547975</v>
-      </c>
-      <c r="P15">
-        <v>0.8533935241547974</v>
-      </c>
-      <c r="Q15">
-        <v>1.722387610013333</v>
-      </c>
-      <c r="R15">
-        <v>15.50148849012</v>
-      </c>
-      <c r="S15">
-        <v>0.06761177109467181</v>
-      </c>
-      <c r="T15">
-        <v>0.06761177109467181</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>0.109672</v>
-      </c>
-      <c r="H16">
-        <v>0.329016</v>
-      </c>
-      <c r="I16">
-        <v>0.07922695588958756</v>
-      </c>
-      <c r="J16">
-        <v>0.07922695588958756</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>2.583925666666667</v>
-      </c>
-      <c r="N16">
-        <v>7.751777000000001</v>
-      </c>
-      <c r="O16">
-        <v>0.1404087682726611</v>
-      </c>
-      <c r="P16">
-        <v>0.1404087682726611</v>
-      </c>
-      <c r="Q16">
-        <v>0.2833842957146667</v>
-      </c>
-      <c r="R16">
-        <v>2.550458661432</v>
-      </c>
-      <c r="S16">
-        <v>0.01112415929044944</v>
-      </c>
-      <c r="T16">
-        <v>0.01112415929044944</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>0.109672</v>
-      </c>
-      <c r="H17">
-        <v>0.329016</v>
-      </c>
-      <c r="I17">
-        <v>0.07922695588958756</v>
-      </c>
-      <c r="J17">
-        <v>0.07922695588958756</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M17">
-        <v>0.03299466666666667</v>
-      </c>
-      <c r="N17">
-        <v>0.09898399999999999</v>
-      </c>
-      <c r="O17">
-        <v>0.001792907809228914</v>
-      </c>
-      <c r="P17">
-        <v>0.001792907809228914</v>
-      </c>
-      <c r="Q17">
-        <v>0.003618591082666666</v>
-      </c>
-      <c r="R17">
-        <v>0.03256731974399999</v>
-      </c>
-      <c r="S17">
-        <v>0.0001420466279158763</v>
-      </c>
-      <c r="T17">
-        <v>0.0001420466279158762</v>
+        <v>0.0003471526099579708</v>
       </c>
     </row>
   </sheetData>
